--- a/biology/Botanique/Osmanthus_delavayi/Osmanthus_delavayi.xlsx
+++ b/biology/Botanique/Osmanthus_delavayi/Osmanthus_delavayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Osmanthe de Delavay (Osmanthus delavayi), est une espèce d'arbustes persistants introduit dans nos jardins. Il est originaire de Chine, du Yunnan, où il fut découvert vers 1880. Pour les anglophones, c'est le Delavay tea olive.
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un buisson, dans nos régions, qui ne dépasse pas 1 à 1,5 m, sa croissance est lente. Dans sa région d'origine, c'est un arbuste de 2 à 6 m de haut.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un buisson, dans nos régions, qui ne dépasse pas 1 à 1,5 m, sa croissance est lente. Dans sa région d'origine, c'est un arbuste de 2 à 6 m de haut.
 Son feuillage est vert foncé, ses feuilles sont dentelées et brillantes, coriaces lancéolées-ovales ou largement ovales. Elles sont opposées, décussées.
-Appareil reproducteur
-Ses fleurs blanches sont regroupées en grappes odorantes. Son fruit est une petite drupe noire bleutée.
 </t>
         </is>
       </c>
@@ -543,13 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synonymes botaniques</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ligustrum phillyrea H. Léveillé
-Siphonosmanthus delavayi (Franchet) Stapf.</t>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs blanches sont regroupées en grappes odorantes. Son fruit est une petite drupe noire bleutée.
+</t>
         </is>
       </c>
     </row>
@@ -574,46 +595,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymes botaniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ligustrum phillyrea H. Léveillé
+Siphonosmanthus delavayi (Franchet) Stapf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Osmanthus_delavayi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Osmanthus_delavayi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Usage horticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Osmanthe de Delavay est un buisson décoratif très apprécié dans nos jardins pour la décoration. Son odeur rappelle celle du Jasmin.
 On le multiplie par marcottage. Sa transplantation se fait en automne ou au printemps.
 Prévoir un sol riche et drainé, au soleil ou à mi-ombre.
 Pour l'entretien, prévoir une taille de nettoyage après floraison.
 Osmanthus × burkwoodii
-Osmanthus × burkwoodii (Burkwood &amp; Skipwith) P.S. Green est un hybride de Osmanthus decorus × Osmanthus delavayi, (syn. ×Osmarea burkwoodii) décrit par Peter Shaw Green en 1972 dans Kew Bulletin 26: 489[1].
+Osmanthus × burkwoodii (Burkwood &amp; Skipwith) P.S. Green est un hybride de Osmanthus decorus × Osmanthus delavayi, (syn. ×Osmarea burkwoodii) décrit par Peter Shaw Green en 1972 dans Kew Bulletin 26: 489.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Osmanthus_delavayi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Osmanthus_delavayi</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
